--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -487,6 +487,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42600.829050925924</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>3227</v>
+      </c>
+      <c r="D3">
+        <v>5623</v>
+      </c>
+      <c r="E3">
+        <v>620</v>
+      </c>
+      <c r="F3">
+        <v>103</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>63</v>
+      </c>
+      <c r="I3">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42600.881851851853</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>9115</v>
+      </c>
+      <c r="D4">
+        <v>5630</v>
+      </c>
+      <c r="E4">
+        <v>621</v>
+      </c>
+      <c r="F4">
+        <v>103</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42602.016446759262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>4270</v>
+      </c>
+      <c r="D5">
+        <v>5159</v>
+      </c>
+      <c r="E5">
+        <v>602</v>
+      </c>
+      <c r="F5">
+        <v>105</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42602.584097222221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>4829</v>
+      </c>
+      <c r="D6">
+        <v>5621</v>
+      </c>
+      <c r="E6">
+        <v>656</v>
+      </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
+      <c r="G6">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>69</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>99</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,6 +651,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42604.891446759262</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,48 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>totalScore</t>
+  </si>
+  <si>
+    <t>posWordPercentage</t>
+  </si>
+  <si>
+    <t>negWordPercentage</t>
+  </si>
+  <si>
+    <t>posPhrasePercentage</t>
+  </si>
+  <si>
+    <t>negPhrasePercentage</t>
+  </si>
+  <si>
+    <t>ElapsedMs</t>
+  </si>
+  <si>
+    <t>wordCount</t>
+  </si>
+  <si>
+    <t>sentenceCount</t>
+  </si>
+  <si>
+    <t>posWordCount</t>
+  </si>
+  <si>
+    <t>negWordCount</t>
+  </si>
+  <si>
+    <t>positivePhraseCount</t>
+  </si>
+  <si>
+    <t>negativePhraseCount</t>
+  </si>
+  <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>ElapsedMs</t>
-  </si>
-  <si>
-    <t>wordCount</t>
-  </si>
-  <si>
-    <t>sentenceCount</t>
-  </si>
-  <si>
-    <t>posWordCount</t>
-  </si>
-  <si>
-    <t>negWordCount</t>
-  </si>
-  <si>
-    <t>posWordPercentage</t>
-  </si>
-  <si>
-    <t>negWordPercentage</t>
-  </si>
-  <si>
-    <t>positivePhraseCount</t>
-  </si>
-  <si>
-    <t>negativePhraseCount</t>
-  </si>
-  <si>
-    <t>posPhrasePercentage</t>
-  </si>
-  <si>
-    <t>negPhrasePercentage</t>
-  </si>
-  <si>
-    <t>Bag</t>
   </si>
 </sst>
 </file>
@@ -101,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,29 +383,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -445,251 +444,8 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42587.798761574071</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42600.829050925924</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>3227</v>
-      </c>
-      <c r="D3">
-        <v>5623</v>
-      </c>
-      <c r="E3">
-        <v>620</v>
-      </c>
-      <c r="F3">
-        <v>103</v>
-      </c>
-      <c r="G3">
-        <v>56</v>
-      </c>
-      <c r="H3">
-        <v>63</v>
-      </c>
-      <c r="I3">
-        <v>34</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42600.881851851853</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>9115</v>
-      </c>
-      <c r="D4">
-        <v>5630</v>
-      </c>
-      <c r="E4">
-        <v>621</v>
-      </c>
-      <c r="F4">
-        <v>103</v>
-      </c>
-      <c r="G4">
-        <v>56</v>
-      </c>
-      <c r="H4">
-        <v>63</v>
-      </c>
-      <c r="I4">
-        <v>34</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42602.016446759262</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>4270</v>
-      </c>
-      <c r="D5">
-        <v>5159</v>
-      </c>
-      <c r="E5">
-        <v>602</v>
-      </c>
-      <c r="F5">
-        <v>105</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>71</v>
-      </c>
-      <c r="I5">
-        <v>27</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42602.584097222221</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>4829</v>
-      </c>
-      <c r="D6">
-        <v>5621</v>
-      </c>
-      <c r="E6">
-        <v>656</v>
-      </c>
-      <c r="F6">
-        <v>95</v>
-      </c>
-      <c r="G6">
-        <v>41</v>
-      </c>
-      <c r="H6">
-        <v>69</v>
-      </c>
-      <c r="I6">
-        <v>29</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>99</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42604.891446759262</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Bag</t>
   </si>
 </sst>
 </file>
@@ -101,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -405,7 +409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -446,6 +450,50 @@
       </c>
       <c r="N1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42605.889074074075</v>
+      </c>
+      <c r="B2">
+        <v>-18</v>
+      </c>
+      <c r="C2">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>99</v>
+      </c>
+      <c r="G2">
+        <v>20377</v>
+      </c>
+      <c r="H2">
+        <v>9796</v>
+      </c>
+      <c r="I2">
+        <v>1132</v>
+      </c>
+      <c r="J2">
+        <v>164</v>
+      </c>
+      <c r="K2">
+        <v>87</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42606.882835648146</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>3572</v>
+      </c>
+      <c r="H3">
+        <v>3745</v>
+      </c>
+      <c r="I3">
+        <v>432</v>
+      </c>
+      <c r="J3">
+        <v>73</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42607.891631944447</v>
+      </c>
+      <c r="B4">
+        <v>-36</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>94</v>
+      </c>
+      <c r="G4">
+        <v>12319</v>
+      </c>
+      <c r="H4">
+        <v>21167</v>
+      </c>
+      <c r="I4">
+        <v>2275</v>
+      </c>
+      <c r="J4">
+        <v>226</v>
+      </c>
+      <c r="K4">
+        <v>357</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +584,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42608.901574074072</v>
+      </c>
+      <c r="B5">
+        <v>-30</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>14776</v>
+      </c>
+      <c r="H5">
+        <v>28794</v>
+      </c>
+      <c r="I5">
+        <v>2956</v>
+      </c>
+      <c r="J5">
+        <v>369</v>
+      </c>
+      <c r="K5">
+        <v>524</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +628,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42611.887604166666</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>6844</v>
+      </c>
+      <c r="H6">
+        <v>10709</v>
+      </c>
+      <c r="I6">
+        <v>1215</v>
+      </c>
+      <c r="J6">
+        <v>145</v>
+      </c>
+      <c r="K6">
+        <v>127</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42612.895254629628</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <v>9640</v>
+      </c>
+      <c r="H7">
+        <v>16674</v>
+      </c>
+      <c r="I7">
+        <v>1786</v>
+      </c>
+      <c r="J7">
+        <v>267</v>
+      </c>
+      <c r="K7">
+        <v>243</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,6 +716,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42613.76190972222</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>16382</v>
+      </c>
+      <c r="H8">
+        <v>16067</v>
+      </c>
+      <c r="I8">
+        <v>1673</v>
+      </c>
+      <c r="J8">
+        <v>296</v>
+      </c>
+      <c r="K8">
+        <v>257</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42613.891898148147</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>8474</v>
+      </c>
+      <c r="H9">
+        <v>14564</v>
+      </c>
+      <c r="I9">
+        <v>1525</v>
+      </c>
+      <c r="J9">
+        <v>270</v>
+      </c>
+      <c r="K9">
+        <v>223</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42614.889270833337</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>25322</v>
+      </c>
+      <c r="H10">
+        <v>24076</v>
+      </c>
+      <c r="I10">
+        <v>2272</v>
+      </c>
+      <c r="J10">
+        <v>398</v>
+      </c>
+      <c r="K10">
+        <v>288</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42615.887824074074</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>12136</v>
+      </c>
+      <c r="H11">
+        <v>18375</v>
+      </c>
+      <c r="I11">
+        <v>2004</v>
+      </c>
+      <c r="J11">
+        <v>328</v>
+      </c>
+      <c r="K11">
+        <v>250</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +892,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42619.894409722219</v>
+      </c>
+      <c r="B12">
+        <v>-8</v>
+      </c>
+      <c r="C12">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>76</v>
+      </c>
+      <c r="G12">
+        <v>7595</v>
+      </c>
+      <c r="H12">
+        <v>13691</v>
+      </c>
+      <c r="I12">
+        <v>1370</v>
+      </c>
+      <c r="J12">
+        <v>260</v>
+      </c>
+      <c r="K12">
+        <v>212</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,6 +936,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42620.891203703701</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>31857</v>
+      </c>
+      <c r="H13">
+        <v>28453</v>
+      </c>
+      <c r="I13">
+        <v>3144</v>
+      </c>
+      <c r="J13">
+        <v>461</v>
+      </c>
+      <c r="K13">
+        <v>347</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -980,6 +980,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42621.89435185185</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>10316</v>
+      </c>
+      <c r="H14">
+        <v>18565</v>
+      </c>
+      <c r="I14">
+        <v>1956</v>
+      </c>
+      <c r="J14">
+        <v>296</v>
+      </c>
+      <c r="K14">
+        <v>157</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,6 +1024,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42622.891481481478</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>16793</v>
+      </c>
+      <c r="H15">
+        <v>14492</v>
+      </c>
+      <c r="I15">
+        <v>1497</v>
+      </c>
+      <c r="J15">
+        <v>264</v>
+      </c>
+      <c r="K15">
+        <v>202</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,6 +1068,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42625.886678240742</v>
+      </c>
+      <c r="B16">
+        <v>-16</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <v>7117</v>
+      </c>
+      <c r="H16">
+        <v>13196</v>
+      </c>
+      <c r="I16">
+        <v>1190</v>
+      </c>
+      <c r="J16">
+        <v>191</v>
+      </c>
+      <c r="K16">
+        <v>153</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
